--- a/medicine/Enfance/Dan_Sleigh/Dan_Sleigh.xlsx
+++ b/medicine/Enfance/Dan_Sleigh/Dan_Sleigh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Sleigh est un romancier sud-africain qui écrit en afrikaans. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né dans une ferme nommée Geelbeksfontein sur la côte ouest le 3 novembre 1938. Il s’inscrit plus tard au lycée de Vredenburg et rejoint la marine sud-africaine. Jusqu’en 1962, il étudie au Paarl Training College pour devenir professeur d’éducation physique, après quoi il enseigne en Namibie et au Cap[1]. 
-En 1969, il obtient un BA Degree en histoire et en littérature anglaise à l’Université d’Afrique du Sud (UNISA). Sleigh obtient également une maîtrise avec mention, suivie d’un doctorat en histoire en 1987 à l’Université de Stellenbosch. Jusqu’à sa retraite en 1996, Sleigh travailla au ministère de l’Éducation du Cap Occidental[1].
-Il a fait ses débuts littéraires en 1974 avec un volume de poésie intitulé Duif oor water. Viennent ensuite des œuvres historiques pour les jeunes comme Die buiteposte et Tussen twee vlae[1]. 
-En 2001, il remporte le concours Sanlam/Insig/Tafelberg pour son roman Eilande. Ce roman a également reçu les prix WA Hofmeyr, RAU, M-Net et Helgaard Steyn[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né dans une ferme nommée Geelbeksfontein sur la côte ouest le 3 novembre 1938. Il s’inscrit plus tard au lycée de Vredenburg et rejoint la marine sud-africaine. Jusqu’en 1962, il étudie au Paarl Training College pour devenir professeur d’éducation physique, après quoi il enseigne en Namibie et au Cap. 
+En 1969, il obtient un BA Degree en histoire et en littérature anglaise à l’Université d’Afrique du Sud (UNISA). Sleigh obtient également une maîtrise avec mention, suivie d’un doctorat en histoire en 1987 à l’Université de Stellenbosch. Jusqu’à sa retraite en 1996, Sleigh travailla au ministère de l’Éducation du Cap Occidental.
+Il a fait ses débuts littéraires en 1974 avec un volume de poésie intitulé Duif oor water. Viennent ensuite des œuvres historiques pour les jeunes comme Die buiteposte et Tussen twee vlae. 
+En 2001, il remporte le concours Sanlam/Insig/Tafelberg pour son roman Eilande. Ce roman a également reçu les prix WA Hofmeyr, RAU, M-Net et Helgaard Steyn.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poésie
 1971 Duif oor water, Tafelberg
